--- a/Study Materials/ParticipantData/20111210DataCoding.xlsx
+++ b/Study Materials/ParticipantData/20111210DataCoding.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="-60" windowWidth="21600" windowHeight="14400" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-420" yWindow="-80" windowWidth="21360" windowHeight="14000" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="User8" sheetId="1" r:id="rId1"/>
     <sheet name="User7" sheetId="2" r:id="rId2"/>
     <sheet name="User13" sheetId="3" r:id="rId3"/>
     <sheet name="User14" sheetId="4" r:id="rId4"/>
+    <sheet name="User9" sheetId="5" r:id="rId5"/>
+    <sheet name="User 11" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -22,78 +24,205 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
-  <si>
-    <t>Wallpost of Web page for iRobot Scooba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I wanted to post information/video ad of the iRobot Scooba (a floor washing robot) that i found on woot.com. </t>
-  </si>
-  <si>
-    <t>Status update: 'double fisting in the morning!'</t>
-  </si>
-  <si>
-    <t>I was walking down Forbes Ave. this morning with a latte in one hand and a cup of water in the other. I felt a bit silly and giggled to myself at the thought of "double-fisting".</t>
-  </si>
-  <si>
-    <t>Wall post: a cow based economics lesson</t>
-  </si>
-  <si>
-    <t>There's a funny post I found on Google+ describing different economies using the example of "You have two cows...". I thought it would be cute to share</t>
-  </si>
-  <si>
-    <t>Status update: i'd be just fine if my professors decided to just grade me on my progress so far and forget about all this 'finals' nonsense. Ive proven m</t>
-  </si>
-  <si>
-    <t>I was getting exhausted thinking of work and figured everyone else could relate at this time of year.</t>
-  </si>
-  <si>
-    <t>yself to this point!!</t>
-  </si>
-  <si>
-    <t>this is part of my previous message...</t>
-  </si>
-  <si>
-    <t>Reply to wall post: you don't have to get me anything! I can't wait to see you :)</t>
-  </si>
-  <si>
-    <t>My aunt posted on my wall "What do you want for Christmas?" I was going to reply to tell her I don't need her to get me anything.</t>
-  </si>
-  <si>
-    <t>Status: Going crazy!</t>
-  </si>
-  <si>
-    <t>Was working too long on editing club websites for my job and let out a scream. Thought to let people know that I am going crazy with all this work.</t>
-  </si>
-  <si>
-    <t>Status: even if there were more hours in a day, there would be more expected of us :(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was playing a lot of tetris instead of studying </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A victim treats his mugger right- link via npr news </t>
-  </si>
-  <si>
-    <t>it was a newspaper article</t>
-  </si>
-  <si>
-    <t>Why do i even study? - status update decided not to post</t>
-  </si>
-  <si>
-    <t>I failed my test</t>
-  </si>
-  <si>
-    <t>Forgot my wallet again- status update</t>
-  </si>
-  <si>
-    <t>Forgot my wallet when I promised someone that I will pay for that coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God thank u for using even my studies as a means to bring me a little closer to u- status update </t>
-  </si>
-  <si>
-    <t>I was having a really hard time with having to study for finals and prayed and wanted to post it on facebook to share</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
+  <si>
+    <t xml:space="preserve">I was going to write on the wall of a friend who just broke up withe her boyfriend. </t>
+  </si>
+  <si>
+    <t>1) I was going to comment on a post someone wrote on my wall.
+2) I was going to write on a friends walls, but stopped.</t>
+  </si>
+  <si>
+    <t>Didn't post a status about my huge project</t>
+  </si>
+  <si>
+    <t>I was pulling an all nighter, and was going to post a status about how grumpy I was</t>
+  </si>
+  <si>
+    <t>I was going to post on a friends wall about getting dinner together because I haven't seen her in a long time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was going to post a picture of my friends at a Bar after finishing our group project </t>
+  </si>
+  <si>
+    <t>I was going to post a photo of my dinner</t>
+  </si>
+  <si>
+    <t>2: funny</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3: useful info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5: vent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4: provie support</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6: seek social support</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why not</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7: don't clog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8: don't trust privacy settings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9: don't want to offend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10: don't want to be whiny</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11: not everyone will understand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12: afraid of criticism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fainted today in chem class. No big deal</t>
+  </si>
+  <si>
+    <t>I fainted in my chemistry class today after attempting to clean a cut obtained by handling broken glass. I saw the blood and felt queasy and fainted.</t>
+  </si>
+  <si>
+    <t>My lab ta told me she thinks of me as her little sister. I feel happy</t>
+  </si>
+  <si>
+    <t>My lab teaching assistant told me that when I fainted in class and she caught me that she felt as if she was catching her little sister. This made me feel special to know that we got to know each other on an even deeper level than just regular teacher assistant/student.</t>
+  </si>
+  <si>
+    <t>I wanted to go see tba today but would rather not be judged for going</t>
+  </si>
+  <si>
+    <t>TBA is the AB Tech films event where they show porn as the film in the UC but I decided not to go because I thought it would be awkward and I didn't want to be judged as a female for going.</t>
+  </si>
+  <si>
+    <t>Chem presentation went well today!! But now I don't know what to do with my life considering the class I stressed about for the past 3 months is now over.</t>
+  </si>
+  <si>
+    <t>Who see</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who not see</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status: wasnt interesting enough</t>
+  </si>
+  <si>
+    <t>I thought about updating my status about how I was glad my week was finally over.  TGIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment on a friends profile picture im in: will write cute comment later when not so busy With school </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A friend updated her profile picture to a  picture of my three friends and I. My four best friends. </t>
+  </si>
+  <si>
+    <t>Posting some pictures, not appropriate for facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was uploading pictures from the last two months. </t>
+  </si>
+  <si>
+    <t>I am stuck looking like a retard trying to unzip my stuck jacket. Status update</t>
+  </si>
+  <si>
+    <t>My jacket zipper got stuck and i tried so hard to unzip it</t>
+  </si>
+  <si>
+    <t>"Going to eat my #25 worth." There was a banquet tonight for all you can eat bbq for 25 dollars</t>
+  </si>
+  <si>
+    <t>Programming can smd. Status update</t>
+  </si>
+  <si>
+    <t>Working on programming homework, and it was super frustrating. I could not solve my problem</t>
+  </si>
+  <si>
+    <t>Somebody come visit me at work! Boreddddd. Status update</t>
+  </si>
+  <si>
+    <t>I was working and I wanted someone to come keep me company due to the fact that I was really bored.</t>
+  </si>
+  <si>
+    <t>This week is going by too fast!!! :(</t>
+  </si>
+  <si>
+    <t>I have so many tests and quizzes and presentations this week. I feel like im not prepared for them.</t>
+  </si>
+  <si>
+    <t>Studying= me jamming by myself in the mw lounge :)</t>
+  </si>
+  <si>
+    <t>I was studying for a math test in the lounge and I was the only one in there. I was also listening to music and a song that I really liked was playing, so I was rocking out to it.</t>
+  </si>
+  <si>
+    <t>Sjksdjjdjsjsjjdjd math test!!!!</t>
+  </si>
+  <si>
+    <t>I was studying for a math test that I was not really understanding</t>
+  </si>
+  <si>
+    <t>Can't believe I have 3 tests AND finals NEXT week</t>
+  </si>
+  <si>
+    <t>I was really frustrated that I was studying for my math test, but there also a culmination of other tests and finals that I have yet studied for.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetris is ruining my life - status post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>sms_body</t>
+  </si>
+  <si>
+    <t>long_description</t>
+  </si>
+  <si>
+    <t>"sometimes I wake up a little early because I am curious as to whether or not people have liked my statuses #loser" fb status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had posted a status overnight and noticed that I had woken up early just to see if anyone had liked it. </t>
+  </si>
+  <si>
+    <t>[Blank]</t>
+  </si>
+  <si>
+    <t>Facebook Status: "Just received $500. It's a good day."</t>
+  </si>
+  <si>
+    <t>Status: I hate it when I have a song in my head but only know the tune and not the lyrics</t>
+  </si>
+  <si>
+    <t>There was a song that was playing when I was at this website and now not only can I not find the song, but the tune is still in my head!</t>
+  </si>
+  <si>
+    <t>"Just joined Amazon Prime!. Now we'll see how often I use this service!"</t>
+  </si>
+  <si>
+    <t>1: Other</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">So sleep and stressed.  why do all the professors try to cram in everything before finals week? </t>
@@ -165,134 +294,76 @@
     <t xml:space="preserve">It was an inside joke between my friend Emily and I. </t>
   </si>
   <si>
-    <t>I am stuck looking like a retard trying to unzip my stuck jacket. Status update</t>
-  </si>
-  <si>
-    <t>My jacket zipper got stuck and i tried so hard to unzip it</t>
-  </si>
-  <si>
-    <t>"Going to eat my #25 worth." There was a banquet tonight for all you can eat bbq for 25 dollars</t>
-  </si>
-  <si>
-    <t>Programming can smd. Status update</t>
-  </si>
-  <si>
-    <t>Working on programming homework, and it was super frustrating. I could not solve my problem</t>
-  </si>
-  <si>
-    <t>Somebody come visit me at work! Boreddddd. Status update</t>
-  </si>
-  <si>
-    <t>I was working and I wanted someone to come keep me company due to the fact that I was really bored.</t>
-  </si>
-  <si>
-    <t>This week is going by too fast!!! :(</t>
-  </si>
-  <si>
-    <t>I have so many tests and quizzes and presentations this week. I feel like im not prepared for them.</t>
-  </si>
-  <si>
-    <t>Studying= me jamming by myself in the mw lounge :)</t>
-  </si>
-  <si>
-    <t>I was studying for a math test in the lounge and I was the only one in there. I was also listening to music and a song that I really liked was playing, so I was rocking out to it.</t>
-  </si>
-  <si>
-    <t>Sjksdjjdjsjsjjdjd math test!!!!</t>
-  </si>
-  <si>
-    <t>I was studying for a math test that I was not really understanding</t>
-  </si>
-  <si>
-    <t>Can't believe I have 3 tests AND finals NEXT week</t>
-  </si>
-  <si>
-    <t>I was really frustrated that I was studying for my math test, but there also a culmination of other tests and finals that I have yet studied for.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetris is ruining my life - status post </t>
-  </si>
-  <si>
-    <t xml:space="preserve">id </t>
-  </si>
-  <si>
-    <t>sms_body</t>
-  </si>
-  <si>
-    <t>long_description</t>
-  </si>
-  <si>
-    <t>"sometimes I wake up a little early because I am curious as to whether or not people have liked my statuses #loser" fb status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I had posted a status overnight and noticed that I had woken up early just to see if anyone had liked it. </t>
-  </si>
-  <si>
-    <t>[Blank]</t>
-  </si>
-  <si>
-    <t>Facebook Status: "Just received $500. It's a good day."</t>
-  </si>
-  <si>
-    <t>Status: I hate it when I have a song in my head but only know the tune and not the lyrics</t>
-  </si>
-  <si>
-    <t>There was a song that was playing when I was at this website and now not only can I not find the song, but the tune is still in my head!</t>
-  </si>
-  <si>
-    <t>"Just joined Amazon Prime!. Now we'll see how often I use this service!"</t>
-  </si>
-  <si>
-    <t>1: Other</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2: funny</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3: useful info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5: vent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4: provie support</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6: seek social support</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Why not</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7: don't clog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8: don't trust privacy settings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9: don't want to offend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10: don't want to be whiny</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11: not everyone will understand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12: afraid of criticism</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Wallpost of Web page for iRobot Scooba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wanted to post information/video ad of the iRobot Scooba (a floor washing robot) that i found on woot.com. </t>
+  </si>
+  <si>
+    <t>Status update: 'double fisting in the morning!'</t>
+  </si>
+  <si>
+    <t>I was walking down Forbes Ave. this morning with a latte in one hand and a cup of water in the other. I felt a bit silly and giggled to myself at the thought of "double-fisting".</t>
+  </si>
+  <si>
+    <t>Wall post: a cow based economics lesson</t>
+  </si>
+  <si>
+    <t>There's a funny post I found on Google+ describing different economies using the example of "You have two cows...". I thought it would be cute to share</t>
+  </si>
+  <si>
+    <t>Status update: i'd be just fine if my professors decided to just grade me on my progress so far and forget about all this 'finals' nonsense. Ive proven m</t>
+  </si>
+  <si>
+    <t>I was getting exhausted thinking of work and figured everyone else could relate at this time of year.</t>
+  </si>
+  <si>
+    <t>yself to this point!!</t>
+  </si>
+  <si>
+    <t>this is part of my previous message...</t>
+  </si>
+  <si>
+    <t>Reply to wall post: you don't have to get me anything! I can't wait to see you :)</t>
+  </si>
+  <si>
+    <t>My aunt posted on my wall "What do you want for Christmas?" I was going to reply to tell her I don't need her to get me anything.</t>
+  </si>
+  <si>
+    <t>Status: Going crazy!</t>
+  </si>
+  <si>
+    <t>Was working too long on editing club websites for my job and let out a scream. Thought to let people know that I am going crazy with all this work.</t>
+  </si>
+  <si>
+    <t>Status: even if there were more hours in a day, there would be more expected of us :(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was playing a lot of tetris instead of studying </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A victim treats his mugger right- link via npr news </t>
+  </si>
+  <si>
+    <t>it was a newspaper article</t>
+  </si>
+  <si>
+    <t>Why do i even study? - status update decided not to post</t>
+  </si>
+  <si>
+    <t>I failed my test</t>
+  </si>
+  <si>
+    <t>Forgot my wallet again- status update</t>
+  </si>
+  <si>
+    <t>Forgot my wallet when I promised someone that I will pay for that coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God thank u for using even my studies as a means to bring me a little closer to u- status update </t>
+  </si>
+  <si>
+    <t>I was having a really hard time with having to study for finals and prayed and wanted to post it on facebook to share</t>
   </si>
 </sst>
 </file>
@@ -328,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -449,11 +520,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -461,9 +541,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -475,16 +565,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -830,116 +916,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14" thickBot="1">
-      <c r="D1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="D1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" ht="40" thickBot="1">
-      <c r="A2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:16" ht="156">
+      <c r="A3" s="3">
         <v>80</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="156">
-      <c r="A3" s="5">
-        <v>80</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>66</v>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="65">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>87</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>68</v>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="156">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>91</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>70</v>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="78">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>107</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>71</v>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +1035,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -974,72 +1059,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14" thickBot="1">
-      <c r="D1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="D1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" ht="40" thickBot="1">
-      <c r="A2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="117">
@@ -1047,10 +1132,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="143">
@@ -1058,10 +1143,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="65">
@@ -1069,10 +1154,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="91">
@@ -1080,10 +1165,10 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="117">
@@ -1091,10 +1176,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="117">
@@ -1102,10 +1187,10 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="130">
@@ -1113,10 +1198,10 @@
         <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="117">
@@ -1124,10 +1209,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="208">
@@ -1135,10 +1220,10 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="91">
@@ -1146,10 +1231,10 @@
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="169">
@@ -1157,10 +1242,10 @@
         <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1255,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1195,116 +1279,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14" thickBot="1">
-      <c r="D1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="D1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" ht="40" thickBot="1">
-      <c r="A2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="52">
+      <c r="A3" s="3">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="65">
+      <c r="A4" s="3">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="78">
+      <c r="A5" s="3">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="91">
+      <c r="A6" s="3">
         <v>63</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="52">
-      <c r="A3" s="5">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="65">
-      <c r="A4" s="5">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="78">
-      <c r="A5" s="5">
-        <v>58</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="91">
-      <c r="A6" s="5">
-        <v>63</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
+      <c r="B6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1312,10 +1396,10 @@
         <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1323,10 +1407,10 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1334,10 +1418,10 @@
         <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1345,10 +1429,10 @@
         <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1356,13 +1440,242 @@
         <v>108</v>
       </c>
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>67</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14" thickBot="1">
+      <c r="D1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+    </row>
+    <row r="2" spans="1:16" ht="40" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="143">
+      <c r="A3" s="3">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="143">
+      <c r="A4" s="3">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="91">
+      <c r="A5" s="3">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="104">
+      <c r="A6" s="3">
+        <v>65</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="2">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:P1"/>
@@ -1378,148 +1691,295 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14" thickBot="1">
-      <c r="D1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" ht="40" thickBot="1">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:18" ht="14" thickBot="1">
+      <c r="D1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+    </row>
+    <row r="2" spans="1:18" ht="53" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="14" thickBot="1">
+      <c r="D1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+    </row>
+    <row r="2" spans="1:18" ht="53" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
         <v>62</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
         <v>77</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="143">
-      <c r="A3" s="5">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="143">
-      <c r="A4" s="5">
-        <v>57</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="91">
-      <c r="A5" s="5">
-        <v>64</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="104">
-      <c r="A6" s="5">
-        <v>65</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1528,70 +1988,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13">
-        <v>111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="2">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:P1"/>

--- a/Study Materials/ParticipantData/20111210DataCoding.xlsx
+++ b/Study Materials/ParticipantData/20111210DataCoding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="-80" windowWidth="21360" windowHeight="14000" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="1560" yWindow="7480" windowWidth="21360" windowHeight="14000" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="User8" sheetId="1" r:id="rId1"/>
@@ -1675,7 +1675,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="2">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:P1"/>
@@ -1821,7 +1820,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="2">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:P1"/>
@@ -1842,7 +1840,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2022,7 +2020,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="2">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:P1"/>
